--- a/Code/Results/Cases/Case_4_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_72/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9709562408559894</v>
+        <v>1.048162677408318</v>
       </c>
       <c r="D2">
-        <v>0.9925492263569973</v>
+        <v>1.047296038336663</v>
       </c>
       <c r="E2">
-        <v>0.9793422051623414</v>
+        <v>1.051833941173634</v>
       </c>
       <c r="F2">
-        <v>0.9800142939058967</v>
+        <v>1.052934466715123</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028933562812533</v>
+        <v>1.037749770864372</v>
       </c>
       <c r="J2">
-        <v>0.9940417602722614</v>
+        <v>1.053207892268829</v>
       </c>
       <c r="K2">
-        <v>1.004113347606088</v>
+        <v>1.05005907320639</v>
       </c>
       <c r="L2">
-        <v>0.9910970406684951</v>
+        <v>1.054584346279199</v>
       </c>
       <c r="M2">
-        <v>0.9917592666451304</v>
+        <v>1.055681826644692</v>
       </c>
       <c r="N2">
-        <v>0.9954534135900317</v>
+        <v>1.054703568280485</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.984207396589857</v>
+        <v>1.050395805217226</v>
       </c>
       <c r="D3">
-        <v>1.00289612691988</v>
+        <v>1.049021739318044</v>
       </c>
       <c r="E3">
-        <v>0.9919972313285502</v>
+        <v>1.054019005597495</v>
       </c>
       <c r="F3">
-        <v>0.9927188128832035</v>
+        <v>1.055136648272025</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03338527804733</v>
+        <v>1.038358478188883</v>
       </c>
       <c r="J3">
-        <v>1.005138042461463</v>
+        <v>1.055083492515499</v>
       </c>
       <c r="K3">
-        <v>1.013492084897367</v>
+        <v>1.051594221109864</v>
       </c>
       <c r="L3">
-        <v>1.002733543636534</v>
+        <v>1.056578613733169</v>
       </c>
       <c r="M3">
-        <v>1.003445713479109</v>
+        <v>1.057693395199345</v>
       </c>
       <c r="N3">
-        <v>1.006565453772703</v>
+        <v>1.056581832094639</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9923370082787966</v>
+        <v>1.051833672705359</v>
       </c>
       <c r="D4">
-        <v>1.009246102765812</v>
+        <v>1.050131896316391</v>
       </c>
       <c r="E4">
-        <v>0.9997689443467493</v>
+        <v>1.055426192135116</v>
       </c>
       <c r="F4">
-        <v>1.000522676807228</v>
+        <v>1.056554914025677</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036097888598684</v>
+        <v>1.038747735437666</v>
       </c>
       <c r="J4">
-        <v>1.011938786369132</v>
+        <v>1.056289968606323</v>
       </c>
       <c r="K4">
-        <v>1.019234201759621</v>
+        <v>1.052580640488853</v>
       </c>
       <c r="L4">
-        <v>1.009870158806767</v>
+        <v>1.057862002672501</v>
       </c>
       <c r="M4">
-        <v>1.010614797671263</v>
+        <v>1.058987985185605</v>
       </c>
       <c r="N4">
-        <v>1.013375855516778</v>
+        <v>1.057790021519896</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9956587096694256</v>
+        <v>1.052436488003893</v>
       </c>
       <c r="D5">
-        <v>1.011840838363231</v>
+        <v>1.050597082971776</v>
       </c>
       <c r="E5">
-        <v>1.002946104929026</v>
+        <v>1.056016207577455</v>
       </c>
       <c r="F5">
-        <v>1.003713372333892</v>
+        <v>1.057149588226205</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037201611327759</v>
+        <v>1.038910286363356</v>
       </c>
       <c r="J5">
-        <v>1.014715727340503</v>
+        <v>1.056795490019029</v>
       </c>
       <c r="K5">
-        <v>1.021577354785863</v>
+        <v>1.052993701670049</v>
       </c>
       <c r="L5">
-        <v>1.01278539147337</v>
+        <v>1.058399890200666</v>
       </c>
       <c r="M5">
-        <v>1.013543705075231</v>
+        <v>1.059530583341553</v>
       </c>
       <c r="N5">
-        <v>1.016156740062847</v>
+        <v>1.058296260830993</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9962110828161352</v>
+        <v>1.052537606889136</v>
       </c>
       <c r="D6">
-        <v>1.012272324644147</v>
+        <v>1.050675101383285</v>
       </c>
       <c r="E6">
-        <v>1.003474536942001</v>
+        <v>1.056115183025136</v>
       </c>
       <c r="F6">
-        <v>1.004244077770726</v>
+        <v>1.057249345969586</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037384874264948</v>
+        <v>1.038937515656469</v>
       </c>
       <c r="J6">
-        <v>1.015177401422176</v>
+        <v>1.056880271676016</v>
       </c>
       <c r="K6">
-        <v>1.021966818601743</v>
+        <v>1.053062961713851</v>
       </c>
       <c r="L6">
-        <v>1.013270124380118</v>
+        <v>1.058490108187823</v>
       </c>
       <c r="M6">
-        <v>1.014030735224605</v>
+        <v>1.059621592371296</v>
       </c>
       <c r="N6">
-        <v>1.016619069774671</v>
+        <v>1.058381162887657</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9923817575788408</v>
+        <v>1.051841734039469</v>
       </c>
       <c r="D7">
-        <v>1.009281058212828</v>
+        <v>1.050138118109239</v>
       </c>
       <c r="E7">
-        <v>0.9998117399114933</v>
+        <v>1.055434082052815</v>
       </c>
       <c r="F7">
-        <v>1.000565653164847</v>
+        <v>1.056562866189422</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036112776369838</v>
+        <v>1.03874991172832</v>
       </c>
       <c r="J7">
-        <v>1.011976204083864</v>
+        <v>1.056296729968873</v>
       </c>
       <c r="K7">
-        <v>1.019265780578065</v>
+        <v>1.052586166197861</v>
       </c>
       <c r="L7">
-        <v>1.009909435368485</v>
+        <v>1.057869196385116</v>
       </c>
       <c r="M7">
-        <v>1.010654256870344</v>
+        <v>1.058995241834811</v>
       </c>
       <c r="N7">
-        <v>1.013413326368956</v>
+        <v>1.057796792484357</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9755335232231037</v>
+        <v>1.048918870546403</v>
       </c>
       <c r="D8">
-        <v>0.9961226251520342</v>
+        <v>1.047880608203081</v>
       </c>
       <c r="E8">
-        <v>0.9837117658736704</v>
+        <v>1.052573803063868</v>
       </c>
       <c r="F8">
-        <v>0.9844005464646011</v>
+        <v>1.053680112902807</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030475144593402</v>
+        <v>1.037956449951414</v>
       </c>
       <c r="J8">
-        <v>0.9978760606058846</v>
+        <v>1.053843263631506</v>
       </c>
       <c r="K8">
-        <v>1.007355375373137</v>
+        <v>1.050579334319126</v>
       </c>
       <c r="L8">
-        <v>0.995116987503351</v>
+        <v>1.055259796342001</v>
       </c>
       <c r="M8">
-        <v>0.9957960522252212</v>
+        <v>1.056363122589712</v>
       </c>
       <c r="N8">
-        <v>0.9992931590699292</v>
+        <v>1.055339841943375</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.941847262565235</v>
+        <v>1.043712131597918</v>
       </c>
       <c r="D9">
-        <v>0.96985223248608</v>
+        <v>1.043851558748543</v>
       </c>
       <c r="E9">
-        <v>0.9516000038454753</v>
+        <v>1.047480646105305</v>
       </c>
       <c r="F9">
-        <v>0.9521758448302695</v>
+        <v>1.04854736640516</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.019055675031653</v>
+        <v>1.036522338203573</v>
       </c>
       <c r="J9">
-        <v>0.9696349855277382</v>
+        <v>1.049463557497999</v>
       </c>
       <c r="K9">
-        <v>0.9834541377169949</v>
+        <v>1.04698873467803</v>
       </c>
       <c r="L9">
-        <v>0.9655303867387963</v>
+        <v>1.050606221813939</v>
       </c>
       <c r="M9">
-        <v>0.9660956138683244</v>
+        <v>1.051669549093756</v>
       </c>
       <c r="N9">
-        <v>0.9710119784258751</v>
+        <v>1.050953916124799</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9155966764612606</v>
+        <v>1.040200612033816</v>
       </c>
       <c r="D10">
-        <v>0.9494462516480988</v>
+        <v>1.041129312864461</v>
       </c>
       <c r="E10">
-        <v>0.9266531596643391</v>
+        <v>1.044047192262996</v>
       </c>
       <c r="F10">
-        <v>0.9271571351256144</v>
+        <v>1.045087511316246</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010074267337939</v>
+        <v>1.035541299771959</v>
       </c>
       <c r="J10">
-        <v>0.9476112179813531</v>
+        <v>1.046503683852774</v>
       </c>
       <c r="K10">
-        <v>0.9647924723975849</v>
+        <v>1.044556684557471</v>
       </c>
       <c r="L10">
-        <v>0.9424862718869091</v>
+        <v>1.047464283421983</v>
       </c>
       <c r="M10">
-        <v>0.9429791374933812</v>
+        <v>1.048500952424887</v>
       </c>
       <c r="N10">
-        <v>0.9489569346034127</v>
+        <v>1.047989839119496</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9029556754029788</v>
+        <v>1.038669943602546</v>
       </c>
       <c r="D11">
-        <v>0.9396482623356898</v>
+        <v>1.039941531094927</v>
       </c>
       <c r="E11">
-        <v>0.914665616761179</v>
+        <v>1.042550911510465</v>
       </c>
       <c r="F11">
-        <v>0.9151402945715017</v>
+        <v>1.043579792791199</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.005736322284267</v>
+        <v>1.035110395824463</v>
       </c>
       <c r="J11">
-        <v>0.937007873121819</v>
+        <v>1.045212034413165</v>
       </c>
       <c r="K11">
-        <v>0.9558057250783997</v>
+        <v>1.04349408397881</v>
       </c>
       <c r="L11">
-        <v>0.9313986514687795</v>
+        <v>1.046093898434871</v>
       </c>
       <c r="M11">
-        <v>0.9318620001317451</v>
+        <v>1.047119022379989</v>
       </c>
       <c r="N11">
-        <v>0.9383385317779572</v>
+        <v>1.046696355389527</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8980214651646182</v>
+        <v>1.038099809692463</v>
       </c>
       <c r="D12">
-        <v>0.9358296158537538</v>
+        <v>1.039498941746466</v>
       </c>
       <c r="E12">
-        <v>0.9099912055028618</v>
+        <v>1.041993641018744</v>
       </c>
       <c r="F12">
-        <v>0.9104554313225764</v>
+        <v>1.043018272595015</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004041961886424</v>
+        <v>1.034949405348841</v>
       </c>
       <c r="J12">
-        <v>0.9328701290808931</v>
+        <v>1.044730712773948</v>
       </c>
       <c r="K12">
-        <v>0.952298908458197</v>
+        <v>1.043097922988802</v>
       </c>
       <c r="L12">
-        <v>0.9270729762039508</v>
+        <v>1.045583344027716</v>
       </c>
       <c r="M12">
-        <v>0.9275257848937638</v>
+        <v>1.046604179040716</v>
       </c>
       <c r="N12">
-        <v>0.9341949116658874</v>
+        <v>1.046214350218375</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8990916396720792</v>
+        <v>1.038222177452442</v>
       </c>
       <c r="D13">
-        <v>0.936657544471185</v>
+        <v>1.039593942369996</v>
       </c>
       <c r="E13">
-        <v>0.9110048027864104</v>
+        <v>1.042113245405352</v>
       </c>
       <c r="F13">
-        <v>0.9114712475656824</v>
+        <v>1.043138788617549</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004409483213418</v>
+        <v>1.034983980857692</v>
       </c>
       <c r="J13">
-        <v>0.9337674944325161</v>
+        <v>1.044834028529303</v>
       </c>
       <c r="K13">
-        <v>0.9530594311262433</v>
+        <v>1.04318296768592</v>
       </c>
       <c r="L13">
-        <v>0.9280110517826051</v>
+        <v>1.045692929747547</v>
       </c>
       <c r="M13">
-        <v>0.9284660987471701</v>
+        <v>1.04671468478242</v>
       </c>
       <c r="N13">
-        <v>0.935093551379239</v>
+        <v>1.046317812693953</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9025530230625793</v>
+        <v>1.038622848585356</v>
       </c>
       <c r="D14">
-        <v>0.9393365168534302</v>
+        <v>1.039904975184353</v>
       </c>
       <c r="E14">
-        <v>0.9142840641220168</v>
+        <v>1.042504877930882</v>
       </c>
       <c r="F14">
-        <v>0.914757867946191</v>
+        <v>1.043533407956234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.005598071959176</v>
+        <v>1.035097107439304</v>
       </c>
       <c r="J14">
-        <v>0.9366701883755386</v>
+        <v>1.045172279993289</v>
       </c>
       <c r="K14">
-        <v>0.9555195264581345</v>
+        <v>1.043461367257523</v>
       </c>
       <c r="L14">
-        <v>0.931045608492751</v>
+        <v>1.046051727368504</v>
       </c>
       <c r="M14">
-        <v>0.9315080760810647</v>
+        <v>1.047076496802844</v>
       </c>
       <c r="N14">
-        <v>0.9380003674806042</v>
+        <v>1.046656544513816</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9046523290160562</v>
+        <v>1.038869505028041</v>
       </c>
       <c r="D15">
-        <v>0.9409621069466332</v>
+        <v>1.040096426873497</v>
       </c>
       <c r="E15">
-        <v>0.9162735583926095</v>
+        <v>1.042745977429696</v>
       </c>
       <c r="F15">
-        <v>0.9167519596494883</v>
+        <v>1.043776347559503</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.006318827720846</v>
+        <v>1.035166684271638</v>
       </c>
       <c r="J15">
-        <v>0.9384308225029269</v>
+        <v>1.045380481802659</v>
       </c>
       <c r="K15">
-        <v>0.9570117261525701</v>
+        <v>1.043632703376337</v>
       </c>
       <c r="L15">
-        <v>0.9328863599806294</v>
+        <v>1.046272590025694</v>
       </c>
       <c r="M15">
-        <v>0.9333534618229489</v>
+        <v>1.047299216644476</v>
       </c>
       <c r="N15">
-        <v>0.9397635019104009</v>
+        <v>1.046865041993636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9164051180987234</v>
+        <v>1.040301979252586</v>
       </c>
       <c r="D16">
-        <v>0.9500735618744652</v>
+        <v>1.04120794856853</v>
       </c>
       <c r="E16">
-        <v>0.9274203918009597</v>
+        <v>1.044146289812526</v>
       </c>
       <c r="F16">
-        <v>0.9279263614977705</v>
+        <v>1.045187367801891</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010351497718003</v>
+        <v>1.035569767410351</v>
       </c>
       <c r="J16">
-        <v>0.948289445236391</v>
+        <v>1.046589191982499</v>
       </c>
       <c r="K16">
-        <v>0.9653672839847778</v>
+        <v>1.044627002543867</v>
       </c>
       <c r="L16">
-        <v>0.9431956155081211</v>
+        <v>1.047555018913301</v>
       </c>
       <c r="M16">
-        <v>0.9436904894060912</v>
+        <v>1.048592454058715</v>
       </c>
       <c r="N16">
-        <v>0.9496361250189465</v>
+        <v>1.048075468680572</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9234078328771874</v>
+        <v>1.041197778465742</v>
       </c>
       <c r="D17">
-        <v>0.9555105537760124</v>
+        <v>1.041902732606103</v>
       </c>
       <c r="E17">
-        <v>0.9340690149977078</v>
+        <v>1.045022073014033</v>
       </c>
       <c r="F17">
-        <v>0.934592851198246</v>
+        <v>1.046069865963417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.012751524781773</v>
+        <v>1.035820964428044</v>
       </c>
       <c r="J17">
-        <v>0.9541645481823774</v>
+        <v>1.047344675722442</v>
       </c>
       <c r="K17">
-        <v>0.9703463602311682</v>
+        <v>1.045248130034493</v>
       </c>
       <c r="L17">
-        <v>0.9493410218033029</v>
+        <v>1.048356769840479</v>
       </c>
       <c r="M17">
-        <v>0.9498538858256915</v>
+        <v>1.049400984179667</v>
       </c>
       <c r="N17">
-        <v>0.9555195712849998</v>
+        <v>1.048832025294081</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9273733557741952</v>
+        <v>1.041719306350475</v>
       </c>
       <c r="D18">
-        <v>0.9585918965311944</v>
+        <v>1.042307119554178</v>
       </c>
       <c r="E18">
-        <v>0.9378362728060953</v>
+        <v>1.045531982145069</v>
       </c>
       <c r="F18">
-        <v>0.9383706920479955</v>
+        <v>1.046583691274007</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01410939094019</v>
+        <v>1.035966895173436</v>
       </c>
       <c r="J18">
-        <v>0.9574916670447057</v>
+        <v>1.047784374214046</v>
       </c>
       <c r="K18">
-        <v>0.9731658340242328</v>
+        <v>1.045609508355125</v>
       </c>
       <c r="L18">
-        <v>0.9528218455919496</v>
+        <v>1.048823464945287</v>
       </c>
       <c r="M18">
-        <v>0.9533453648728345</v>
+        <v>1.049871633316059</v>
       </c>
       <c r="N18">
-        <v>0.9588514150377385</v>
+        <v>1.049272348207977</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9287064759034953</v>
+        <v>1.041896969709689</v>
       </c>
       <c r="D19">
-        <v>0.9596281562846819</v>
+        <v>1.042444858807708</v>
       </c>
       <c r="E19">
-        <v>0.9391031018369742</v>
+        <v>1.045705693276368</v>
       </c>
       <c r="F19">
-        <v>0.93964115359489</v>
+        <v>1.046758737639043</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.014565646856435</v>
+        <v>1.036016554490521</v>
       </c>
       <c r="J19">
-        <v>0.9586101765845095</v>
+        <v>1.047934138070567</v>
       </c>
       <c r="K19">
-        <v>0.9741136373311797</v>
+        <v>1.045732574916264</v>
       </c>
       <c r="L19">
-        <v>0.9539921344213761</v>
+        <v>1.048982435657996</v>
       </c>
       <c r="M19">
-        <v>0.9545193109741301</v>
+        <v>1.050031952233859</v>
       </c>
       <c r="N19">
-        <v>0.9599715129893839</v>
+        <v>1.049422324746352</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9226691085671254</v>
+        <v>1.04110176906163</v>
       </c>
       <c r="D20">
-        <v>0.9549367326034279</v>
+        <v>1.04182827898989</v>
       </c>
       <c r="E20">
-        <v>0.9333674035884483</v>
+        <v>1.044928205303</v>
       </c>
       <c r="F20">
-        <v>0.9338893052773661</v>
+        <v>1.045975277859237</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.012498466985427</v>
+        <v>1.035794074322585</v>
       </c>
       <c r="J20">
-        <v>0.9535447574038219</v>
+        <v>1.047263719316374</v>
       </c>
       <c r="K20">
-        <v>0.9698211157630798</v>
+        <v>1.045181583813845</v>
       </c>
       <c r="L20">
-        <v>0.9486926496208483</v>
+        <v>1.048270848408383</v>
       </c>
       <c r="M20">
-        <v>0.9492035658855827</v>
+        <v>1.049314335422723</v>
       </c>
       <c r="N20">
-        <v>0.954898900332448</v>
+        <v>1.048750953920631</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9015407961892437</v>
+        <v>1.038504904816864</v>
       </c>
       <c r="D21">
-        <v>0.9385529198388066</v>
+        <v>1.039813422567099</v>
       </c>
       <c r="E21">
-        <v>0.913324958701477</v>
+        <v>1.042389593294188</v>
       </c>
       <c r="F21">
-        <v>0.9137965818629163</v>
+        <v>1.04341724381346</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005250510302011</v>
+        <v>1.035063820381042</v>
       </c>
       <c r="J21">
-        <v>0.9358213040184487</v>
+        <v>1.04507271637689</v>
       </c>
       <c r="K21">
-        <v>0.9548000727146662</v>
+        <v>1.043379426220049</v>
       </c>
       <c r="L21">
-        <v>0.9301581327526426</v>
+        <v>1.045946113073881</v>
       </c>
       <c r="M21">
-        <v>0.9306184017959134</v>
+        <v>1.046969994861299</v>
       </c>
       <c r="N21">
-        <v>0.9371502776103589</v>
+        <v>1.046556839505661</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8868358797378775</v>
+        <v>1.036863012619915</v>
       </c>
       <c r="D22">
-        <v>0.927186172543308</v>
+        <v>1.038538516212073</v>
       </c>
       <c r="E22">
-        <v>0.899404729137193</v>
+        <v>1.04078485031072</v>
       </c>
       <c r="F22">
-        <v>0.8998473902294714</v>
+        <v>1.041800282279183</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.000200071138994</v>
+        <v>1.0345992713124</v>
       </c>
       <c r="J22">
-        <v>0.9234932923999591</v>
+        <v>1.043686182300584</v>
       </c>
       <c r="K22">
-        <v>0.9443525984777736</v>
+        <v>1.042237850880062</v>
       </c>
       <c r="L22">
-        <v>0.9172722138433331</v>
+        <v>1.044475571097128</v>
       </c>
       <c r="M22">
-        <v>0.9177032439848443</v>
+        <v>1.045487122769059</v>
       </c>
       <c r="N22">
-        <v>0.9248047588013284</v>
+        <v>1.04516833639193</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8947871282287476</v>
+        <v>1.037734293936083</v>
       </c>
       <c r="D23">
-        <v>0.9333284160379767</v>
+        <v>1.039215147366311</v>
       </c>
       <c r="E23">
-        <v>0.9069286398587573</v>
+        <v>1.041636387649584</v>
       </c>
       <c r="F23">
-        <v>0.9073863227922682</v>
+        <v>1.042658297690473</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.002931137744105</v>
+        <v>1.034846055717477</v>
       </c>
       <c r="J23">
-        <v>0.9301583024713966</v>
+        <v>1.044422074281862</v>
       </c>
       <c r="K23">
-        <v>0.9500006696646235</v>
+        <v>1.04284383811513</v>
       </c>
       <c r="L23">
-        <v>0.9242382773157501</v>
+        <v>1.045255990779269</v>
       </c>
       <c r="M23">
-        <v>0.9246844837486558</v>
+        <v>1.046274079316698</v>
       </c>
       <c r="N23">
-        <v>0.9314792339515545</v>
+        <v>1.045905273424228</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9230032708116918</v>
+        <v>1.041145154594262</v>
       </c>
       <c r="D24">
-        <v>0.9551962932449761</v>
+        <v>1.041861924057285</v>
       </c>
       <c r="E24">
-        <v>0.9336847708136683</v>
+        <v>1.044970622923059</v>
       </c>
       <c r="F24">
-        <v>0.9342075461356706</v>
+        <v>1.046018020995612</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.012612941686975</v>
+        <v>1.03580622662069</v>
       </c>
       <c r="J24">
-        <v>0.9538251196170451</v>
+        <v>1.047300303003444</v>
       </c>
       <c r="K24">
-        <v>0.9700587106830075</v>
+        <v>1.045211656011778</v>
       </c>
       <c r="L24">
-        <v>0.9489859386548489</v>
+        <v>1.048309675546806</v>
       </c>
       <c r="M24">
-        <v>0.9494977345372668</v>
+        <v>1.049353491208411</v>
       </c>
       <c r="N24">
-        <v>0.9551796606921718</v>
+        <v>1.048787589560733</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9511257497517364</v>
+        <v>1.045065124534762</v>
       </c>
       <c r="D25">
-        <v>0.9770805448399726</v>
+        <v>1.044899405591427</v>
       </c>
       <c r="E25">
-        <v>0.9604340875127325</v>
+        <v>1.048803871511783</v>
       </c>
       <c r="F25">
-        <v>0.9610387469416858</v>
+        <v>1.049880826846958</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022216140667523</v>
+        <v>1.036897430472652</v>
       </c>
       <c r="J25">
-        <v>0.9774178112692232</v>
+        <v>1.050602718258916</v>
       </c>
       <c r="K25">
-        <v>0.9900453906181937</v>
+        <v>1.047923609963072</v>
       </c>
       <c r="L25">
-        <v>0.9736793232644484</v>
+        <v>1.051816086395515</v>
       </c>
       <c r="M25">
-        <v>0.9742735781408545</v>
+        <v>1.052889751829365</v>
       </c>
       <c r="N25">
-        <v>0.9788058566726152</v>
+        <v>1.052094694624659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_72/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048162677408318</v>
+        <v>0.9709562408559902</v>
       </c>
       <c r="D2">
-        <v>1.047296038336663</v>
+        <v>0.992549226356998</v>
       </c>
       <c r="E2">
-        <v>1.051833941173634</v>
+        <v>0.9793422051623419</v>
       </c>
       <c r="F2">
-        <v>1.052934466715123</v>
+        <v>0.9800142939058974</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037749770864372</v>
+        <v>1.028933562812533</v>
       </c>
       <c r="J2">
-        <v>1.053207892268829</v>
+        <v>0.9940417602722622</v>
       </c>
       <c r="K2">
-        <v>1.05005907320639</v>
+        <v>1.004113347606089</v>
       </c>
       <c r="L2">
-        <v>1.054584346279199</v>
+        <v>0.9910970406684959</v>
       </c>
       <c r="M2">
-        <v>1.055681826644692</v>
+        <v>0.991759266645131</v>
       </c>
       <c r="N2">
-        <v>1.054703568280485</v>
+        <v>0.9954534135900324</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050395805217226</v>
+        <v>0.9842073965898552</v>
       </c>
       <c r="D3">
-        <v>1.049021739318044</v>
+        <v>1.002896126919878</v>
       </c>
       <c r="E3">
-        <v>1.054019005597495</v>
+        <v>0.9919972313285486</v>
       </c>
       <c r="F3">
-        <v>1.055136648272025</v>
+        <v>0.9927188128832026</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038358478188883</v>
+        <v>1.03338527804733</v>
       </c>
       <c r="J3">
-        <v>1.055083492515499</v>
+        <v>1.005138042461461</v>
       </c>
       <c r="K3">
-        <v>1.051594221109864</v>
+        <v>1.013492084897364</v>
       </c>
       <c r="L3">
-        <v>1.056578613733169</v>
+        <v>1.002733543636533</v>
       </c>
       <c r="M3">
-        <v>1.057693395199345</v>
+        <v>1.003445713479108</v>
       </c>
       <c r="N3">
-        <v>1.056581832094639</v>
+        <v>1.006565453772701</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051833672705359</v>
+        <v>0.9923370082787977</v>
       </c>
       <c r="D4">
-        <v>1.050131896316391</v>
+        <v>1.009246102765813</v>
       </c>
       <c r="E4">
-        <v>1.055426192135116</v>
+        <v>0.9997689443467505</v>
       </c>
       <c r="F4">
-        <v>1.056554914025677</v>
+        <v>1.00052267680723</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038747735437666</v>
+        <v>1.036097888598684</v>
       </c>
       <c r="J4">
-        <v>1.056289968606323</v>
+        <v>1.011938786369134</v>
       </c>
       <c r="K4">
-        <v>1.052580640488853</v>
+        <v>1.019234201759621</v>
       </c>
       <c r="L4">
-        <v>1.057862002672501</v>
+        <v>1.009870158806768</v>
       </c>
       <c r="M4">
-        <v>1.058987985185605</v>
+        <v>1.010614797671264</v>
       </c>
       <c r="N4">
-        <v>1.057790021519896</v>
+        <v>1.013375855516779</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052436488003893</v>
+        <v>0.9956587096694275</v>
       </c>
       <c r="D5">
-        <v>1.050597082971776</v>
+        <v>1.011840838363233</v>
       </c>
       <c r="E5">
-        <v>1.056016207577455</v>
+        <v>1.002946104929028</v>
       </c>
       <c r="F5">
-        <v>1.057149588226205</v>
+        <v>1.003713372333894</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038910286363356</v>
+        <v>1.03720161132776</v>
       </c>
       <c r="J5">
-        <v>1.056795490019029</v>
+        <v>1.014715727340504</v>
       </c>
       <c r="K5">
-        <v>1.052993701670049</v>
+        <v>1.021577354785865</v>
       </c>
       <c r="L5">
-        <v>1.058399890200666</v>
+        <v>1.012785391473372</v>
       </c>
       <c r="M5">
-        <v>1.059530583341553</v>
+        <v>1.013543705075233</v>
       </c>
       <c r="N5">
-        <v>1.058296260830993</v>
+        <v>1.016156740062849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052537606889136</v>
+        <v>0.9962110828161325</v>
       </c>
       <c r="D6">
-        <v>1.050675101383285</v>
+        <v>1.012272324644145</v>
       </c>
       <c r="E6">
-        <v>1.056115183025136</v>
+        <v>1.003474536941998</v>
       </c>
       <c r="F6">
-        <v>1.057249345969586</v>
+        <v>1.004244077770723</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038937515656469</v>
+        <v>1.037384874264947</v>
       </c>
       <c r="J6">
-        <v>1.056880271676016</v>
+        <v>1.015177401422173</v>
       </c>
       <c r="K6">
-        <v>1.053062961713851</v>
+        <v>1.021966818601741</v>
       </c>
       <c r="L6">
-        <v>1.058490108187823</v>
+        <v>1.013270124380115</v>
       </c>
       <c r="M6">
-        <v>1.059621592371296</v>
+        <v>1.014030735224602</v>
       </c>
       <c r="N6">
-        <v>1.058381162887657</v>
+        <v>1.016619069774668</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051841734039469</v>
+        <v>0.9923817575788414</v>
       </c>
       <c r="D7">
-        <v>1.050138118109239</v>
+        <v>1.009281058212829</v>
       </c>
       <c r="E7">
-        <v>1.055434082052815</v>
+        <v>0.9998117399114939</v>
       </c>
       <c r="F7">
-        <v>1.056562866189422</v>
+        <v>1.000565653164848</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03874991172832</v>
+        <v>1.036112776369839</v>
       </c>
       <c r="J7">
-        <v>1.056296729968873</v>
+        <v>1.011976204083864</v>
       </c>
       <c r="K7">
-        <v>1.052586166197861</v>
+        <v>1.019265780578065</v>
       </c>
       <c r="L7">
-        <v>1.057869196385116</v>
+        <v>1.009909435368486</v>
       </c>
       <c r="M7">
-        <v>1.058995241834811</v>
+        <v>1.010654256870345</v>
       </c>
       <c r="N7">
-        <v>1.057796792484357</v>
+        <v>1.013413326368956</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048918870546403</v>
+        <v>0.9755335232231029</v>
       </c>
       <c r="D8">
-        <v>1.047880608203081</v>
+        <v>0.9961226251520338</v>
       </c>
       <c r="E8">
-        <v>1.052573803063868</v>
+        <v>0.9837117658736694</v>
       </c>
       <c r="F8">
-        <v>1.053680112902807</v>
+        <v>0.9844005464646007</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037956449951414</v>
+        <v>1.030475144593402</v>
       </c>
       <c r="J8">
-        <v>1.053843263631506</v>
+        <v>0.997876060605884</v>
       </c>
       <c r="K8">
-        <v>1.050579334319126</v>
+        <v>1.007355375373137</v>
       </c>
       <c r="L8">
-        <v>1.055259796342001</v>
+        <v>0.9951169875033503</v>
       </c>
       <c r="M8">
-        <v>1.056363122589712</v>
+        <v>0.9957960522252209</v>
       </c>
       <c r="N8">
-        <v>1.055339841943375</v>
+        <v>0.9992931590699285</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043712131597918</v>
+        <v>0.9418472625652334</v>
       </c>
       <c r="D9">
-        <v>1.043851558748543</v>
+        <v>0.9698522324860788</v>
       </c>
       <c r="E9">
-        <v>1.047480646105305</v>
+        <v>0.9516000038454742</v>
       </c>
       <c r="F9">
-        <v>1.04854736640516</v>
+        <v>0.9521758448302681</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036522338203573</v>
+        <v>1.019055675031652</v>
       </c>
       <c r="J9">
-        <v>1.049463557497999</v>
+        <v>0.9696349855277366</v>
       </c>
       <c r="K9">
-        <v>1.04698873467803</v>
+        <v>0.9834541377169935</v>
       </c>
       <c r="L9">
-        <v>1.050606221813939</v>
+        <v>0.9655303867387952</v>
       </c>
       <c r="M9">
-        <v>1.051669549093756</v>
+        <v>0.9660956138683229</v>
       </c>
       <c r="N9">
-        <v>1.050953916124799</v>
+        <v>0.9710119784258735</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040200612033816</v>
+        <v>0.9155966764612593</v>
       </c>
       <c r="D10">
-        <v>1.041129312864461</v>
+        <v>0.9494462516480978</v>
       </c>
       <c r="E10">
-        <v>1.044047192262996</v>
+        <v>0.9266531596643383</v>
       </c>
       <c r="F10">
-        <v>1.045087511316246</v>
+        <v>0.9271571351256133</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035541299771959</v>
+        <v>1.010074267337938</v>
       </c>
       <c r="J10">
-        <v>1.046503683852774</v>
+        <v>0.9476112179813518</v>
       </c>
       <c r="K10">
-        <v>1.044556684557471</v>
+        <v>0.9647924723975839</v>
       </c>
       <c r="L10">
-        <v>1.047464283421983</v>
+        <v>0.9424862718869081</v>
       </c>
       <c r="M10">
-        <v>1.048500952424887</v>
+        <v>0.9429791374933801</v>
       </c>
       <c r="N10">
-        <v>1.047989839119496</v>
+        <v>0.9489569346034115</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038669943602546</v>
+        <v>0.9029556754029781</v>
       </c>
       <c r="D11">
-        <v>1.039941531094927</v>
+        <v>0.9396482623356894</v>
       </c>
       <c r="E11">
-        <v>1.042550911510465</v>
+        <v>0.9146656167611783</v>
       </c>
       <c r="F11">
-        <v>1.043579792791199</v>
+        <v>0.9151402945715011</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035110395824463</v>
+        <v>1.005736322284267</v>
       </c>
       <c r="J11">
-        <v>1.045212034413165</v>
+        <v>0.9370078731218183</v>
       </c>
       <c r="K11">
-        <v>1.04349408397881</v>
+        <v>0.9558057250783996</v>
       </c>
       <c r="L11">
-        <v>1.046093898434871</v>
+        <v>0.9313986514687789</v>
       </c>
       <c r="M11">
-        <v>1.047119022379989</v>
+        <v>0.9318620001317447</v>
       </c>
       <c r="N11">
-        <v>1.046696355389527</v>
+        <v>0.9383385317779565</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038099809692463</v>
+        <v>0.8980214651646151</v>
       </c>
       <c r="D12">
-        <v>1.039498941746466</v>
+        <v>0.935829615853751</v>
       </c>
       <c r="E12">
-        <v>1.041993641018744</v>
+        <v>0.9099912055028588</v>
       </c>
       <c r="F12">
-        <v>1.043018272595015</v>
+        <v>0.9104554313225739</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034949405348841</v>
+        <v>1.004041961886423</v>
       </c>
       <c r="J12">
-        <v>1.044730712773948</v>
+        <v>0.9328701290808902</v>
       </c>
       <c r="K12">
-        <v>1.043097922988802</v>
+        <v>0.9522989084581945</v>
       </c>
       <c r="L12">
-        <v>1.045583344027716</v>
+        <v>0.927072976203948</v>
       </c>
       <c r="M12">
-        <v>1.046604179040716</v>
+        <v>0.9275257848937615</v>
       </c>
       <c r="N12">
-        <v>1.046214350218375</v>
+        <v>0.9341949116658845</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038222177452442</v>
+        <v>0.8990916396720814</v>
       </c>
       <c r="D13">
-        <v>1.039593942369996</v>
+        <v>0.9366575444711868</v>
       </c>
       <c r="E13">
-        <v>1.042113245405352</v>
+        <v>0.9110048027864127</v>
       </c>
       <c r="F13">
-        <v>1.043138788617549</v>
+        <v>0.9114712475656844</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034983980857692</v>
+        <v>1.004409483213418</v>
       </c>
       <c r="J13">
-        <v>1.044834028529303</v>
+        <v>0.9337674944325182</v>
       </c>
       <c r="K13">
-        <v>1.04318296768592</v>
+        <v>0.953059431126245</v>
       </c>
       <c r="L13">
-        <v>1.045692929747547</v>
+        <v>0.9280110517826075</v>
       </c>
       <c r="M13">
-        <v>1.04671468478242</v>
+        <v>0.9284660987471722</v>
       </c>
       <c r="N13">
-        <v>1.046317812693953</v>
+        <v>0.9350935513792409</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038622848585356</v>
+        <v>0.9025530230625814</v>
       </c>
       <c r="D14">
-        <v>1.039904975184353</v>
+        <v>0.9393365168534319</v>
       </c>
       <c r="E14">
-        <v>1.042504877930882</v>
+        <v>0.9142840641220188</v>
       </c>
       <c r="F14">
-        <v>1.043533407956234</v>
+        <v>0.9147578679461923</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035097107439304</v>
+        <v>1.005598071959177</v>
       </c>
       <c r="J14">
-        <v>1.045172279993289</v>
+        <v>0.9366701883755404</v>
       </c>
       <c r="K14">
-        <v>1.043461367257523</v>
+        <v>0.955519526458136</v>
       </c>
       <c r="L14">
-        <v>1.046051727368504</v>
+        <v>0.9310456084927529</v>
       </c>
       <c r="M14">
-        <v>1.047076496802844</v>
+        <v>0.9315080760810661</v>
       </c>
       <c r="N14">
-        <v>1.046656544513816</v>
+        <v>0.9380003674806061</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038869505028041</v>
+        <v>0.9046523290160546</v>
       </c>
       <c r="D15">
-        <v>1.040096426873497</v>
+        <v>0.9409621069466316</v>
       </c>
       <c r="E15">
-        <v>1.042745977429696</v>
+        <v>0.9162735583926078</v>
       </c>
       <c r="F15">
-        <v>1.043776347559503</v>
+        <v>0.9167519596494874</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035166684271638</v>
+        <v>1.006318827720845</v>
       </c>
       <c r="J15">
-        <v>1.045380481802659</v>
+        <v>0.9384308225029255</v>
       </c>
       <c r="K15">
-        <v>1.043632703376337</v>
+        <v>0.9570117261525688</v>
       </c>
       <c r="L15">
-        <v>1.046272590025694</v>
+        <v>0.9328863599806277</v>
       </c>
       <c r="M15">
-        <v>1.047299216644476</v>
+        <v>0.933353461822948</v>
       </c>
       <c r="N15">
-        <v>1.046865041993636</v>
+        <v>0.9397635019103995</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040301979252586</v>
+        <v>0.9164051180987201</v>
       </c>
       <c r="D16">
-        <v>1.04120794856853</v>
+        <v>0.9500735618744626</v>
       </c>
       <c r="E16">
-        <v>1.044146289812526</v>
+        <v>0.9274203918009564</v>
       </c>
       <c r="F16">
-        <v>1.045187367801891</v>
+        <v>0.9279263614977673</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035569767410351</v>
+        <v>1.010351497718001</v>
       </c>
       <c r="J16">
-        <v>1.046589191982499</v>
+        <v>0.9482894452363878</v>
       </c>
       <c r="K16">
-        <v>1.044627002543867</v>
+        <v>0.9653672839847751</v>
       </c>
       <c r="L16">
-        <v>1.047555018913301</v>
+        <v>0.9431956155081179</v>
       </c>
       <c r="M16">
-        <v>1.048592454058715</v>
+        <v>0.9436904894060882</v>
       </c>
       <c r="N16">
-        <v>1.048075468680572</v>
+        <v>0.9496361250189432</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041197778465742</v>
+        <v>0.9234078328771892</v>
       </c>
       <c r="D17">
-        <v>1.041902732606103</v>
+        <v>0.9555105537760141</v>
       </c>
       <c r="E17">
-        <v>1.045022073014033</v>
+        <v>0.9340690149977099</v>
       </c>
       <c r="F17">
-        <v>1.046069865963417</v>
+        <v>0.934592851198248</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035820964428044</v>
+        <v>1.012751524781774</v>
       </c>
       <c r="J17">
-        <v>1.047344675722442</v>
+        <v>0.9541645481823795</v>
       </c>
       <c r="K17">
-        <v>1.045248130034493</v>
+        <v>0.9703463602311699</v>
       </c>
       <c r="L17">
-        <v>1.048356769840479</v>
+        <v>0.949341021803305</v>
       </c>
       <c r="M17">
-        <v>1.049400984179667</v>
+        <v>0.9498538858256935</v>
       </c>
       <c r="N17">
-        <v>1.048832025294081</v>
+        <v>0.9555195712850018</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041719306350475</v>
+        <v>0.9273733557741952</v>
       </c>
       <c r="D18">
-        <v>1.042307119554178</v>
+        <v>0.958591896531194</v>
       </c>
       <c r="E18">
-        <v>1.045531982145069</v>
+        <v>0.9378362728060953</v>
       </c>
       <c r="F18">
-        <v>1.046583691274007</v>
+        <v>0.9383706920479955</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035966895173436</v>
+        <v>1.01410939094019</v>
       </c>
       <c r="J18">
-        <v>1.047784374214046</v>
+        <v>0.9574916670447057</v>
       </c>
       <c r="K18">
-        <v>1.045609508355125</v>
+        <v>0.9731658340242328</v>
       </c>
       <c r="L18">
-        <v>1.048823464945287</v>
+        <v>0.9528218455919496</v>
       </c>
       <c r="M18">
-        <v>1.049871633316059</v>
+        <v>0.9533453648728345</v>
       </c>
       <c r="N18">
-        <v>1.049272348207977</v>
+        <v>0.9588514150377384</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041896969709689</v>
+        <v>0.9287064759034892</v>
       </c>
       <c r="D19">
-        <v>1.042444858807708</v>
+        <v>0.9596281562846775</v>
       </c>
       <c r="E19">
-        <v>1.045705693276368</v>
+        <v>0.9391031018369683</v>
       </c>
       <c r="F19">
-        <v>1.046758737639043</v>
+        <v>0.939641153594885</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036016554490521</v>
+        <v>1.014565646856433</v>
       </c>
       <c r="J19">
-        <v>1.047934138070567</v>
+        <v>0.958610176584504</v>
       </c>
       <c r="K19">
-        <v>1.045732574916264</v>
+        <v>0.9741136373311752</v>
       </c>
       <c r="L19">
-        <v>1.048982435657996</v>
+        <v>0.95399213442137</v>
       </c>
       <c r="M19">
-        <v>1.050031952233859</v>
+        <v>0.9545193109741252</v>
       </c>
       <c r="N19">
-        <v>1.049422324746352</v>
+        <v>0.959971512989378</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04110176906163</v>
+        <v>0.9226691085671238</v>
       </c>
       <c r="D20">
-        <v>1.04182827898989</v>
+        <v>0.9549367326034265</v>
       </c>
       <c r="E20">
-        <v>1.044928205303</v>
+        <v>0.9333674035884468</v>
       </c>
       <c r="F20">
-        <v>1.045975277859237</v>
+        <v>0.9338893052773644</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035794074322585</v>
+        <v>1.012498466985427</v>
       </c>
       <c r="J20">
-        <v>1.047263719316374</v>
+        <v>0.9535447574038202</v>
       </c>
       <c r="K20">
-        <v>1.045181583813845</v>
+        <v>0.9698211157630787</v>
       </c>
       <c r="L20">
-        <v>1.048270848408383</v>
+        <v>0.9486926496208468</v>
       </c>
       <c r="M20">
-        <v>1.049314335422723</v>
+        <v>0.949203565885581</v>
       </c>
       <c r="N20">
-        <v>1.048750953920631</v>
+        <v>0.9548989003324462</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038504904816864</v>
+        <v>0.9015407961892427</v>
       </c>
       <c r="D21">
-        <v>1.039813422567099</v>
+        <v>0.9385529198388061</v>
       </c>
       <c r="E21">
-        <v>1.042389593294188</v>
+        <v>0.9133249587014758</v>
       </c>
       <c r="F21">
-        <v>1.04341724381346</v>
+        <v>0.9137965818629157</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035063820381042</v>
+        <v>1.005250510302011</v>
       </c>
       <c r="J21">
-        <v>1.04507271637689</v>
+        <v>0.9358213040184477</v>
       </c>
       <c r="K21">
-        <v>1.043379426220049</v>
+        <v>0.9548000727146657</v>
       </c>
       <c r="L21">
-        <v>1.045946113073881</v>
+        <v>0.9301581327526414</v>
       </c>
       <c r="M21">
-        <v>1.046969994861299</v>
+        <v>0.9306184017959127</v>
       </c>
       <c r="N21">
-        <v>1.046556839505661</v>
+        <v>0.9371502776103579</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036863012619915</v>
+        <v>0.8868358797378812</v>
       </c>
       <c r="D22">
-        <v>1.038538516212073</v>
+        <v>0.9271861725433114</v>
       </c>
       <c r="E22">
-        <v>1.04078485031072</v>
+        <v>0.8994047291371967</v>
       </c>
       <c r="F22">
-        <v>1.041800282279183</v>
+        <v>0.8998473902294745</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0345992713124</v>
+        <v>1.000200071138995</v>
       </c>
       <c r="J22">
-        <v>1.043686182300584</v>
+        <v>0.9234932923999628</v>
       </c>
       <c r="K22">
-        <v>1.042237850880062</v>
+        <v>0.9443525984777765</v>
       </c>
       <c r="L22">
-        <v>1.044475571097128</v>
+        <v>0.9172722138433369</v>
       </c>
       <c r="M22">
-        <v>1.045487122769059</v>
+        <v>0.9177032439848473</v>
       </c>
       <c r="N22">
-        <v>1.04516833639193</v>
+        <v>0.9248047588013318</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037734293936083</v>
+        <v>0.8947871282287433</v>
       </c>
       <c r="D23">
-        <v>1.039215147366311</v>
+        <v>0.9333284160379735</v>
       </c>
       <c r="E23">
-        <v>1.041636387649584</v>
+        <v>0.9069286398587529</v>
       </c>
       <c r="F23">
-        <v>1.042658297690473</v>
+        <v>0.9073863227922648</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034846055717477</v>
+        <v>1.002931137744104</v>
       </c>
       <c r="J23">
-        <v>1.044422074281862</v>
+        <v>0.9301583024713926</v>
       </c>
       <c r="K23">
-        <v>1.04284383811513</v>
+        <v>0.95000066966462</v>
       </c>
       <c r="L23">
-        <v>1.045255990779269</v>
+        <v>0.924238277315746</v>
       </c>
       <c r="M23">
-        <v>1.046274079316698</v>
+        <v>0.9246844837486524</v>
       </c>
       <c r="N23">
-        <v>1.045905273424228</v>
+        <v>0.9314792339515504</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041145154594262</v>
+        <v>0.9230032708116941</v>
       </c>
       <c r="D24">
-        <v>1.041861924057285</v>
+        <v>0.9551962932449781</v>
       </c>
       <c r="E24">
-        <v>1.044970622923059</v>
+        <v>0.9336847708136706</v>
       </c>
       <c r="F24">
-        <v>1.046018020995612</v>
+        <v>0.9342075461356727</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03580622662069</v>
+        <v>1.012612941686976</v>
       </c>
       <c r="J24">
-        <v>1.047300303003444</v>
+        <v>0.9538251196170473</v>
       </c>
       <c r="K24">
-        <v>1.045211656011778</v>
+        <v>0.9700587106830095</v>
       </c>
       <c r="L24">
-        <v>1.048309675546806</v>
+        <v>0.9489859386548511</v>
       </c>
       <c r="M24">
-        <v>1.049353491208411</v>
+        <v>0.9494977345372689</v>
       </c>
       <c r="N24">
-        <v>1.048787589560733</v>
+        <v>0.955179660692174</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045065124534762</v>
+        <v>0.9511257497517331</v>
       </c>
       <c r="D25">
-        <v>1.044899405591427</v>
+        <v>0.97708054483997</v>
       </c>
       <c r="E25">
-        <v>1.048803871511783</v>
+        <v>0.9604340875127294</v>
       </c>
       <c r="F25">
-        <v>1.049880826846958</v>
+        <v>0.9610387469416835</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036897430472652</v>
+        <v>1.022216140667522</v>
       </c>
       <c r="J25">
-        <v>1.050602718258916</v>
+        <v>0.97741781126922</v>
       </c>
       <c r="K25">
-        <v>1.047923609963072</v>
+        <v>0.9900453906181914</v>
       </c>
       <c r="L25">
-        <v>1.051816086395515</v>
+        <v>0.9736793232644451</v>
       </c>
       <c r="M25">
-        <v>1.052889751829365</v>
+        <v>0.974273578140852</v>
       </c>
       <c r="N25">
-        <v>1.052094694624659</v>
+        <v>0.9788058566726123</v>
       </c>
     </row>
   </sheetData>
